--- a/local_storage/riddles.xlsx
+++ b/local_storage/riddles.xlsx
@@ -1,42 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apm30/Documents/Git/Riddler/local_storage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46057870-7DD3-7049-A9A9-69B2A8A2C7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B83A9271-5838-314B-80B1-75DF2C03EE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="640" windowWidth="28040" windowHeight="17240" xr2:uid="{9FAD66AD-9B00-5246-AB21-3F887AD31F0C}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="riddles" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="403">
   <si>
     <t>No</t>
   </si>
@@ -47,12 +31,18 @@
     <t>Answer</t>
   </si>
   <si>
+    <t>Category</t>
+  </si>
+  <si>
     <t>What has to be broken before you can use it?</t>
   </si>
   <si>
     <t>Egg</t>
   </si>
   <si>
+    <t>Easy</t>
+  </si>
+  <si>
     <t xml:space="preserve"> I’m tall when I’m young, and I’m short when I’m old. What am I?</t>
   </si>
   <si>
@@ -95,12 +85,12 @@
     <t>A promise</t>
   </si>
   <si>
+    <t>What goes up but never comes down?</t>
+  </si>
+  <si>
     <t>Your age</t>
   </si>
   <si>
-    <t>What goes up but never comes down?</t>
-  </si>
-  <si>
     <t>A man who was outside in the rain without an umbrella or hat didn’t get a single hair on his head wet. Why?</t>
   </si>
   <si>
@@ -167,6 +157,9 @@
     <t>David</t>
   </si>
   <si>
+    <t>Kids</t>
+  </si>
+  <si>
     <t>I follow you all the time and copy your every move, but you can’t touch me or catch me. What am I?</t>
   </si>
   <si>
@@ -251,24 +244,15 @@
     <t>Your name</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Kids</t>
-  </si>
-  <si>
-    <t>Easy</t>
+    <t>What has lots of eyes, but can’t see?</t>
+  </si>
+  <si>
+    <t>A potato</t>
   </si>
   <si>
     <t>Funny</t>
   </si>
   <si>
-    <t>What has lots of eyes, but can’t see?</t>
-  </si>
-  <si>
-    <t>A potato</t>
-  </si>
-  <si>
     <t>What has one eye, but can’t see?</t>
   </si>
   <si>
@@ -404,6 +388,9 @@
     <t>Seven</t>
   </si>
   <si>
+    <t>Math</t>
+  </si>
+  <si>
     <t>If two’s company, and three’s a crowd, what are four and five?</t>
   </si>
   <si>
@@ -470,15 +457,15 @@
     <t>Four sisters and three brothers</t>
   </si>
   <si>
-    <t>Math</t>
-  </si>
-  <si>
     <t>What five-letter word becomes shorter when you add two letters to it?</t>
   </si>
   <si>
     <t>Short</t>
   </si>
   <si>
+    <t>Word</t>
+  </si>
+  <si>
     <t>What begins with an "e" and only contains one letter?</t>
   </si>
   <si>
@@ -509,9 +496,6 @@
     <t>The letter “r”</t>
   </si>
   <si>
-    <t>Word</t>
-  </si>
-  <si>
     <t>I am the beginning of everything, the end of everywhere. I'm the beginning of eternity, the end of time and space. What am I?</t>
   </si>
   <si>
@@ -578,15 +562,15 @@
     <t>Silence</t>
   </si>
   <si>
+    <t>Hard</t>
+  </si>
+  <si>
     <t>What can run but never walks, has a mouth but never talks, has a head but never weeps, has a bed but never sleeps?</t>
   </si>
   <si>
     <t>A river</t>
   </si>
   <si>
-    <t>Hard</t>
-  </si>
-  <si>
     <t>Speaking of rivers, a man calls his dog from the opposite side of the river. The dog crosses the river without getting wet, and without using a bridge or boat. How?</t>
   </si>
   <si>
@@ -669,16 +653,705 @@
   </si>
   <si>
     <t>Nothing</t>
+  </si>
+  <si>
+    <t>What has keys but can't open locks?</t>
+  </si>
+  <si>
+    <t>Piano</t>
+  </si>
+  <si>
+    <t>I speak without a mouth and hear without ears. I have no body, but I come alive with the wind. What am I?</t>
+  </si>
+  <si>
+    <t>What has a heart that doesn't beat?</t>
+  </si>
+  <si>
+    <t>Artichoke</t>
+  </si>
+  <si>
+    <t>The person who makes it, sells it. The person who buys it never uses it. What is it?</t>
+  </si>
+  <si>
+    <t>Coffin</t>
+  </si>
+  <si>
+    <t>What has a neck but no head?</t>
+  </si>
+  <si>
+    <t>Bottle</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>What has an endless supply of letters but starts empty?</t>
+  </si>
+  <si>
+    <t>Mailbox</t>
+  </si>
+  <si>
+    <t>What comes once in a minute, twice in a moment, but never in a thousand years?</t>
+  </si>
+  <si>
+    <t>The letter 'M</t>
+  </si>
+  <si>
+    <t>What comes once in a year, twice in a month, but never in a day?</t>
+  </si>
+  <si>
+    <t>The letter 'R'</t>
+  </si>
+  <si>
+    <t>What has a face and two hands but no body?</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>I can fly without wings. I can cry without eyes. Wherever I go, darkness follows me. What am I?</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>What has a head, a tail, is brown, and has no legs?</t>
+  </si>
+  <si>
+    <t>Penny</t>
+  </si>
+  <si>
+    <t>I have cities, but no houses. I have mountains, but no trees. I have water, but no fish. What am I?</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>What has a mane but can't roar and a tail but can't wag?</t>
+  </si>
+  <si>
+    <t>Comet</t>
+  </si>
+  <si>
+    <t>I'm alive without breath, and cold as death. I'm never thirsty, but always drinking. What am I?</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>What begins with T, ends with T, and has T in it?</t>
+  </si>
+  <si>
+    <t>Teapot</t>
+  </si>
+  <si>
+    <t>What has wings, but can't fly, eyes but can't see, and legs but can't walk?</t>
+  </si>
+  <si>
+    <t>Windmill</t>
+  </si>
+  <si>
+    <t>I can be cracked, made, told, and played. What am I?</t>
+  </si>
+  <si>
+    <t>Joke</t>
+  </si>
+  <si>
+    <t>What has a mouth but doesn't eat and a bank without money?</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>I'm a word of letters three; add two and fewer there will be. What word am I?</t>
+  </si>
+  <si>
+    <t>What has a heart that doesn't beat, and you can find it in salads?</t>
+  </si>
+  <si>
+    <t>Lettuce</t>
+  </si>
+  <si>
+    <t>I'm tall when I'm young, short when I'm old, and have a spine but no bones. What am I?</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>What has a heart that doesn't beat, and people often peel and cry over it?</t>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
+    <t>What has keys but can't open locks and is played with fingers on strings?</t>
+  </si>
+  <si>
+    <t>Guitar</t>
+  </si>
+  <si>
+    <t>What has a handle but no door, and is filled with books?</t>
+  </si>
+  <si>
+    <t>BookShelf</t>
+  </si>
+  <si>
+    <t>I'm alive without breath, and cold as death. I'm never thirsty, but always melting. What am I?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Cream </t>
+  </si>
+  <si>
+    <t xml:space="preserve">	What has a neck but no head, and you wear it around your waist?</t>
+  </si>
+  <si>
+    <t>Belt</t>
+  </si>
+  <si>
+    <t>I have wings but can't fly, a bed but never sleep, and a source of flowing water. What am I?</t>
+  </si>
+  <si>
+    <t>Waterfall</t>
+  </si>
+  <si>
+    <t>What has a heart that doesn't beat, and people often peel before eating?</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>What has a handle but no door, and you use it to sweep the floor?</t>
+  </si>
+  <si>
+    <t>Broom</t>
+  </si>
+  <si>
+    <t>I have a face but no head, hands but no arms, and you use me to communicate. What am I?</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>What has a handle but no door, and you fill it with hot water to enjoy a warm beverage?</t>
+  </si>
+  <si>
+    <t>Mug</t>
+  </si>
+  <si>
+    <t>What has a mouth but doesn't speak, and you can find it at the beginning of a river?</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>I'm not alive, but I can think. I don't have a brain, but I can perform calculations. What am I?</t>
+  </si>
+  <si>
+    <t>A Computer</t>
+  </si>
+  <si>
+    <t>What has four wheels and flies, and you often see it collecting trash?</t>
+  </si>
+  <si>
+    <t>Garbage Truck</t>
+  </si>
+  <si>
+    <t>I have a mouth but can't talk, and you use me to wipe yourself after a shower. What am I?</t>
+  </si>
+  <si>
+    <t>A Towel</t>
+  </si>
+  <si>
+    <t>What can't be put in a saucepan, and you often forget where you placed it?</t>
+  </si>
+  <si>
+    <t>A Lid</t>
+  </si>
+  <si>
+    <t>I have a face with no expressions, a heart with no emotions, and yet people carry me every day. What am I?</t>
+  </si>
+  <si>
+    <t>A Wallet</t>
+  </si>
+  <si>
+    <t>I guard the secrets of the night, with a thousand eyes but no sight. What am I?</t>
+  </si>
+  <si>
+    <t>Stars</t>
+  </si>
+  <si>
+    <t>I'm the beginning of the end, and the end of time and space. I'm essential, but people fear my embrace. What am I?</t>
+  </si>
+  <si>
+    <t>Death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	I have a voice but no mouth, wings but can't fly, and you often hear me in the still of the night. What am I?</t>
+  </si>
+  <si>
+    <t>An Owl</t>
+  </si>
+  <si>
+    <t>I have a thousand stories, yet I am silent. I can be opened but never read. What am I?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A Jar</t>
+  </si>
+  <si>
+    <t>I come in various sizes and shapes. People enjoy rolling me and testing their luck. What am I?</t>
+  </si>
+  <si>
+    <t>A Dice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	I'm a piece of furniture designed for relaxation, typically found in the living room. What am I?</t>
+  </si>
+  <si>
+    <t>A Sofa</t>
+  </si>
+  <si>
+    <t>I'm a creature that transforms from a caterpillar into a beautiful winged insect. What am I?</t>
+  </si>
+  <si>
+    <t>A ButterFly</t>
+  </si>
+  <si>
+    <t>I'm a mythical creature with a horn on my forehead, often associated with magic. What am I?</t>
+  </si>
+  <si>
+    <t>An Unicorn</t>
+  </si>
+  <si>
+    <t>I'm a large mammal with a trunk and tusks, known for my intelligence. What am I?</t>
+  </si>
+  <si>
+    <t>An Elephant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	I'm a creature that lives in the ocean, known for my intelligence and playful behavior. What am I?</t>
+  </si>
+  <si>
+    <t>A Dolphin</t>
+  </si>
+  <si>
+    <t>I'm a planet in our solar system known for my beautiful rings. What am I?</t>
+  </si>
+  <si>
+    <t>Saturn</t>
+  </si>
+  <si>
+    <t>I'm a reptile with a hard shell that protects me, and I often retreat into it. What am I?</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>I'm a small, buzzing insect that produces honey, and I live in hives. What am I?</t>
+  </si>
+  <si>
+    <t>Bees</t>
+  </si>
+  <si>
+    <t>I'm a vehicle that flies high in the sky, carrying people from one place to another. What am I?</t>
+  </si>
+  <si>
+    <t>Airplanes</t>
+  </si>
+  <si>
+    <t>I'm a delicious treat made from frozen fruit and milk, perfect for a hot summer day. What am I?</t>
+  </si>
+  <si>
+    <t>Smoothie</t>
+  </si>
+  <si>
+    <t>I'm a device that captures moments with a click, and people often take me on vacations. What am I?</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>I'm a sneaky body part that works without asking for permission. What am I ?</t>
+  </si>
+  <si>
+    <t>Nose</t>
+  </si>
+  <si>
+    <t>I'm a band that never plays music. What am I?</t>
+  </si>
+  <si>
+    <t>Rubberband</t>
+  </si>
+  <si>
+    <t>I'm a fruit that's great at math. What am I?</t>
+  </si>
+  <si>
+    <t>A Pi-napple</t>
+  </si>
+  <si>
+    <t>I'm a fish that tells the best jokes in the sea. What am I?</t>
+  </si>
+  <si>
+    <t>A Clownfish</t>
+  </si>
+  <si>
+    <t>I'm a tree that never grows. What am I?</t>
+  </si>
+  <si>
+    <t>X-mas Tree</t>
+  </si>
+  <si>
+    <t>“WHY IS CORN HARD TO ESCAPE FROM?”</t>
+  </si>
+  <si>
+    <t>A Maize</t>
+  </si>
+  <si>
+    <t>“WHAT IS ALWAYS ON ITS WAY HERE BUT NEVER ARRIVES?</t>
+  </si>
+  <si>
+    <t>Tomorrow</t>
+  </si>
+  <si>
+    <t>I FEEL YOUR EVERY MOVE. I KNOW YOUR EVERY THOUGHT. I’M WITH YOU FROM BIRTH AND I’LL SEE YOU WHEN YOU ROT.</t>
+  </si>
+  <si>
+    <t>Your Reflection</t>
+  </si>
+  <si>
+    <t>WITHOUT FINGERS I POINT, WITHOUT ARMS I STRIKE, WITHOUT FEET I RUN. WHAT AM I?</t>
+  </si>
+  <si>
+    <t>Where does a 500-pound gorilla sleep?</t>
+  </si>
+  <si>
+    <t>Anywhere it wants</t>
+  </si>
+  <si>
+    <t>We're five little items of an everyday sort, you'll find us all in a tennis court.</t>
+  </si>
+  <si>
+    <t>Vowels</t>
+  </si>
+  <si>
+    <t>I have billions of eyes, yet live in darkness. I have millions of ears, yet only four lobes. I have no muscle, yet rule two hemispheres. What am I?</t>
+  </si>
+  <si>
+    <t>A Human Brain</t>
+  </si>
+  <si>
+    <t>I can be cracked. I can be made. I can be told. I can be played. What am I?</t>
+  </si>
+  <si>
+    <t>A Joke</t>
+  </si>
+  <si>
+    <t>When is a secret suddenly a rumor? When is a rumor suddenly a fact?</t>
+  </si>
+  <si>
+    <t>When the proper question is asked.</t>
+  </si>
+  <si>
+    <t>The less of them you have, the more one is worth.</t>
+  </si>
+  <si>
+    <t>A Friend</t>
+  </si>
+  <si>
+    <t>If you look at the numbers on my face, you won't find 13 anyplace.</t>
+  </si>
+  <si>
+    <t>A Clock</t>
+  </si>
+  <si>
+    <t>I Can Fill A Room Or Just One Heart</t>
+  </si>
+  <si>
+    <t>Lonliness</t>
+  </si>
+  <si>
+    <t>When I Reveal Myself, You Will Never Be The Same</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betrayal </t>
+  </si>
+  <si>
+    <t>What gets harder to catch the faster you run?</t>
+  </si>
+  <si>
+    <t>Your breath!</t>
+  </si>
+  <si>
+    <t>I sit in the corner while traveling around the world. What am I?</t>
+  </si>
+  <si>
+    <t>A Postage Stamp</t>
+  </si>
+  <si>
+    <t>How many sides does a circle have?</t>
+  </si>
+  <si>
+    <t>Two – one inside and one outside!</t>
+  </si>
+  <si>
+    <t>Which nationality of people are always in a hurry?</t>
+  </si>
+  <si>
+    <t>Rush-ians!</t>
+  </si>
+  <si>
+    <t>What goes up white and comes down yellow and white?</t>
+  </si>
+  <si>
+    <t>An egg, of course</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I am unpredictable, but you still rely on me. My installments give you the experience of life for free. I offer no refunds, returns, or exchanges. What am I?</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>What do you throw away yet keeps returning?</t>
+  </si>
+  <si>
+    <t>Boomerang</t>
+  </si>
+  <si>
+    <t>When is the time like the whistle of a train?</t>
+  </si>
+  <si>
+    <t>When it’s two-two.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What’s that one room where one can’t enter? </t>
+  </si>
+  <si>
+    <t>A Mushroom</t>
+  </si>
+  <si>
+    <t>2 means company. 3 means crowd. So, what are 4 and 5?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s 9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When is 5 plus 9, equal to 2? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding 5 hours to 9 am leads to 2 pm. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I Can Start A War Or End One. I Can Give You The Strength Of Heroes Or Leave You Powerless. I Might Be Snared With A Glance, But No Force Can Compel Me To Stay. What Am I?</t>
+  </si>
+  <si>
+    <t>Love</t>
+  </si>
+  <si>
+    <t>Which President Wore The Biggest Hat?</t>
+  </si>
+  <si>
+    <t>The person with the biggest head will wear the biggest hat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What Is The Beginning Of Eternity, The End Of Time And Space, The Beginning Of Every End, And The End Of Every Race?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The letter “e”</t>
+  </si>
+  <si>
+    <t>At night they come without being fetched, and by day they are lost without being stolen.</t>
+  </si>
+  <si>
+    <t>The Stars</t>
+  </si>
+  <si>
+    <t>As small as your thumb, I am light in the air, you may hear me before you see me, but trust that I'm there.</t>
+  </si>
+  <si>
+    <t>What can run but never walk, has a mouth but never talks, has a head but never weeps, has a bed but never sleeps?</t>
+  </si>
+  <si>
+    <t>What can bring back the dead; make you cry, make you laugh, make you young; is born in an instant, yet lasts a lifetime?</t>
+  </si>
+  <si>
+    <t>Memories</t>
+  </si>
+  <si>
+    <t>This thing all things devour: birds, beasts, trees, flowers; gnaws iron, bites steel; grinds hard stones to meal; slays kings, ruins towns; and beats high mountains down.</t>
+  </si>
+  <si>
+    <t>Some try to hide, some try to cheat; but time will show, we always will meet. Try as you might to guess my name; I promise you'll know, when you I do claim.</t>
+  </si>
+  <si>
+    <t>Hummingbird</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I'm alive, but without breath; I'm as cold in life as in death; I'm never thirsty, though I always drink.</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I create my lair with earthen string, and dispatch my prey with a biting sting.</t>
+  </si>
+  <si>
+    <t>A Spider</t>
+  </si>
+  <si>
+    <t>What is always old and sometimes new; never sad, sometimes blue; never empty, but sometimes full; never pushes, always pulls?</t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>Never resting, never still; moving silently from hill to hill; it does not walk, run or trot; all is cool where it is not.</t>
+  </si>
+  <si>
+    <t>The Sun</t>
+  </si>
+  <si>
+    <t>What is large, yet never grows; has roots that cannot be seen; and taller than trees?</t>
+  </si>
+  <si>
+    <t>Mountains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What has one voice but goes on four legs in the morning, two in the afternoon, and three in the evening? </t>
+  </si>
+  <si>
+    <t>It’s a human being</t>
+  </si>
+  <si>
+    <t>Before Mt. Everest was discovered, what was the highest mountain in the world?</t>
+  </si>
+  <si>
+    <t>Mt. Everest, it just wasn’t discovered yet.</t>
+  </si>
+  <si>
+    <t>They weigh the same.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -692,27 +1365,220 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="19"/>
-      <color rgb="FF333333"/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF374151"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
+      <i/>
+      <sz val="22"/>
+      <color rgb="FF332B2B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -720,18 +1586,211 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1042,46 +2101,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57609D54-9BC2-A745-8035-B7C8FE47639A}">
-  <dimension ref="A1:D102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="C208" sqref="C208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="56.33203125" customWidth="1"/>
-    <col min="3" max="3" width="37.1640625" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="111.83203125" customWidth="1"/>
+    <col min="3" max="3" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1089,13 +2148,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1103,1389 +2162,2788 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>28</v>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>32</v>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>36</v>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>38</v>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>40</v>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>42</v>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>44</v>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>48</v>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>50</v>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>52</v>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>54</v>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>56</v>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>58</v>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>60</v>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>62</v>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>64</v>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>66</v>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>68</v>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>70</v>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" t="s">
         <v>76</v>
       </c>
-      <c r="D36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>78</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>80</v>
       </c>
       <c r="D38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>82</v>
       </c>
       <c r="D39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>84</v>
       </c>
       <c r="D40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>86</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>88</v>
       </c>
       <c r="D42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>90</v>
       </c>
       <c r="D43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>92</v>
       </c>
       <c r="D44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>94</v>
       </c>
       <c r="D45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>96</v>
       </c>
       <c r="D46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>98</v>
       </c>
       <c r="D47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>100</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>102</v>
       </c>
       <c r="D49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>104</v>
       </c>
       <c r="D50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
         <v>106</v>
       </c>
       <c r="D51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" t="s">
         <v>108</v>
       </c>
       <c r="D52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
         <v>110</v>
       </c>
       <c r="D53" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
         <v>94</v>
       </c>
       <c r="D54" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
         <v>113</v>
       </c>
       <c r="D55" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>115</v>
       </c>
       <c r="D56" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>117</v>
       </c>
       <c r="D57" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>118</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
         <v>119</v>
       </c>
       <c r="D58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>121</v>
       </c>
       <c r="D59" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D60" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="B61" t="s">
         <v>125</v>
       </c>
+      <c r="C61" t="s">
+        <v>126</v>
+      </c>
       <c r="D61" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="B62" t="s">
         <v>127</v>
       </c>
+      <c r="C62" t="s">
+        <v>128</v>
+      </c>
       <c r="D62" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="B63" t="s">
         <v>129</v>
       </c>
+      <c r="C63" t="s">
+        <v>130</v>
+      </c>
       <c r="D63" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="B64" t="s">
         <v>131</v>
       </c>
+      <c r="C64" t="s">
+        <v>132</v>
+      </c>
       <c r="D64" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="B65" t="s">
         <v>133</v>
       </c>
+      <c r="C65" t="s">
+        <v>134</v>
+      </c>
       <c r="D65" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="B66" t="s">
         <v>135</v>
       </c>
+      <c r="C66" t="s">
+        <v>136</v>
+      </c>
       <c r="D66" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="B67" t="s">
         <v>137</v>
       </c>
+      <c r="C67" t="s">
+        <v>138</v>
+      </c>
       <c r="D67" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="B68" t="s">
         <v>139</v>
       </c>
+      <c r="C68" t="s">
+        <v>140</v>
+      </c>
       <c r="D68" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="B69" t="s">
         <v>141</v>
       </c>
+      <c r="C69" t="s">
+        <v>142</v>
+      </c>
       <c r="D69" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="B70" t="s">
         <v>143</v>
       </c>
+      <c r="C70" t="s">
+        <v>144</v>
+      </c>
       <c r="D70" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>145</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" t="s">
         <v>146</v>
       </c>
       <c r="D71" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" t="s">
+        <v>149</v>
+      </c>
+      <c r="D72" t="s">
         <v>147</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D72" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C73" s="1" t="s">
+      <c r="B73" t="s">
         <v>150</v>
       </c>
+      <c r="C73" t="s">
+        <v>151</v>
+      </c>
       <c r="D73" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C74" s="1" t="s">
+      <c r="B74" t="s">
         <v>152</v>
       </c>
+      <c r="C74" t="s">
+        <v>153</v>
+      </c>
       <c r="D74" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C75" s="1" t="s">
+      <c r="B75" t="s">
         <v>154</v>
       </c>
+      <c r="C75" t="s">
+        <v>155</v>
+      </c>
       <c r="D75" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C76" s="1" t="s">
+      <c r="B76" t="s">
         <v>156</v>
       </c>
+      <c r="C76" t="s">
+        <v>157</v>
+      </c>
       <c r="D76" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
         <v>158</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" t="s">
         <v>159</v>
       </c>
       <c r="D77" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s">
         <v>160</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" t="s">
         <v>161</v>
       </c>
       <c r="D78" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s">
         <v>162</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" t="s">
         <v>163</v>
       </c>
       <c r="D79" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" t="s">
         <v>164</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" t="s">
         <v>165</v>
       </c>
       <c r="D80" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" t="s">
         <v>166</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" t="s">
         <v>167</v>
       </c>
       <c r="D81" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" t="s">
         <v>168</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" t="s">
         <v>169</v>
       </c>
       <c r="D82" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" t="s">
         <v>170</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" t="s">
         <v>171</v>
       </c>
       <c r="D83" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" t="s">
         <v>172</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" t="s">
         <v>173</v>
       </c>
       <c r="D84" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" t="s">
         <v>174</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" t="s">
         <v>175</v>
       </c>
       <c r="D85" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" t="s">
         <v>176</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" t="s">
         <v>177</v>
       </c>
       <c r="D86" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" t="s">
         <v>178</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" t="s">
         <v>179</v>
       </c>
       <c r="D87" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" t="s">
+        <v>181</v>
+      </c>
+      <c r="C88" t="s">
+        <v>182</v>
+      </c>
+      <c r="D88" t="s">
         <v>180</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D88" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" t="s">
         <v>183</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" t="s">
         <v>184</v>
       </c>
       <c r="D89" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" t="s">
         <v>185</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" t="s">
         <v>186</v>
       </c>
       <c r="D90" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" t="s">
         <v>187</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" t="s">
         <v>188</v>
       </c>
       <c r="D91" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" t="s">
         <v>189</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" t="s">
         <v>190</v>
       </c>
       <c r="D92" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" t="s">
         <v>191</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" t="s">
         <v>192</v>
       </c>
       <c r="D93" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" t="s">
         <v>193</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" t="s">
         <v>194</v>
       </c>
       <c r="D94" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" t="s">
         <v>195</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" t="s">
         <v>196</v>
       </c>
       <c r="D95" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" t="s">
         <v>197</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" t="s">
         <v>198</v>
       </c>
       <c r="D96" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" t="s">
         <v>199</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" t="s">
         <v>200</v>
       </c>
       <c r="D97" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" t="s">
         <v>201</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" t="s">
         <v>202</v>
       </c>
       <c r="D98" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" t="s">
         <v>203</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" t="s">
         <v>204</v>
       </c>
       <c r="D99" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" t="s">
         <v>205</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" t="s">
         <v>206</v>
       </c>
       <c r="D100" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" t="s">
         <v>207</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" t="s">
         <v>208</v>
       </c>
       <c r="D101" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" t="s">
         <v>209</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" t="s">
         <v>210</v>
       </c>
       <c r="D102" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C103" t="s">
+        <v>212</v>
+      </c>
+      <c r="D103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C106" t="s">
+        <v>217</v>
+      </c>
+      <c r="D106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C107" t="s">
+        <v>219</v>
+      </c>
+      <c r="D107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C108" t="s">
+        <v>220</v>
+      </c>
+      <c r="D108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C109" t="s">
+        <v>222</v>
+      </c>
+      <c r="D109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C110" t="s">
+        <v>224</v>
+      </c>
+      <c r="D110" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C111" t="s">
+        <v>226</v>
+      </c>
+      <c r="D111" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C112" t="s">
+        <v>228</v>
+      </c>
+      <c r="D112" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C113" t="s">
+        <v>230</v>
+      </c>
+      <c r="D113" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C114" t="s">
+        <v>232</v>
+      </c>
+      <c r="D114" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C115" t="s">
+        <v>234</v>
+      </c>
+      <c r="D115" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C116" t="s">
+        <v>236</v>
+      </c>
+      <c r="D116" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C117" t="s">
+        <v>238</v>
+      </c>
+      <c r="D117" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C118" t="s">
+        <v>240</v>
+      </c>
+      <c r="D118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C119" t="s">
+        <v>242</v>
+      </c>
+      <c r="D119" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C120" t="s">
+        <v>244</v>
+      </c>
+      <c r="D120" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C121" t="s">
+        <v>246</v>
+      </c>
+      <c r="D121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C122" t="s">
+        <v>167</v>
+      </c>
+      <c r="D122" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C123" t="s">
+        <v>249</v>
+      </c>
+      <c r="D123" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C124" t="s">
+        <v>251</v>
+      </c>
+      <c r="D124" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C125" t="s">
+        <v>253</v>
+      </c>
+      <c r="D125" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C126" t="s">
+        <v>255</v>
+      </c>
+      <c r="D126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C127" t="s">
+        <v>257</v>
+      </c>
+      <c r="D127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C128" t="s">
+        <v>259</v>
+      </c>
+      <c r="D128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C129" t="s">
+        <v>261</v>
+      </c>
+      <c r="D129" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C130" t="s">
+        <v>263</v>
+      </c>
+      <c r="D130" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C131" t="s">
+        <v>265</v>
+      </c>
+      <c r="D131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C132" t="s">
+        <v>267</v>
+      </c>
+      <c r="D132" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C133" t="s">
+        <v>269</v>
+      </c>
+      <c r="D133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C134" t="s">
+        <v>271</v>
+      </c>
+      <c r="D134" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C135" t="s">
+        <v>273</v>
+      </c>
+      <c r="D135" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C136" t="s">
+        <v>275</v>
+      </c>
+      <c r="D136" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C137" t="s">
+        <v>277</v>
+      </c>
+      <c r="D137" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C138" t="s">
+        <v>279</v>
+      </c>
+      <c r="D138" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C139" t="s">
+        <v>281</v>
+      </c>
+      <c r="D139" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C140" t="s">
+        <v>283</v>
+      </c>
+      <c r="D140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C141" t="s">
+        <v>285</v>
+      </c>
+      <c r="D141" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C142" t="s">
+        <v>287</v>
+      </c>
+      <c r="D142" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C143" t="s">
+        <v>289</v>
+      </c>
+      <c r="D143" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C144" t="s">
+        <v>291</v>
+      </c>
+      <c r="D144" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C145" t="s">
+        <v>293</v>
+      </c>
+      <c r="D145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C146" t="s">
+        <v>295</v>
+      </c>
+      <c r="D146" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C147" t="s">
+        <v>297</v>
+      </c>
+      <c r="D147" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C148" t="s">
+        <v>299</v>
+      </c>
+      <c r="D148" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C149" t="s">
+        <v>301</v>
+      </c>
+      <c r="D149" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C150" t="s">
+        <v>303</v>
+      </c>
+      <c r="D150" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C151" t="s">
+        <v>305</v>
+      </c>
+      <c r="D151" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C152" t="s">
+        <v>307</v>
+      </c>
+      <c r="D152" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C153" t="s">
+        <v>309</v>
+      </c>
+      <c r="D153" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C154" t="s">
+        <v>311</v>
+      </c>
+      <c r="D154" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C155" t="s">
+        <v>313</v>
+      </c>
+      <c r="D155" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C156" t="s">
+        <v>315</v>
+      </c>
+      <c r="D156" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C157" t="s">
+        <v>317</v>
+      </c>
+      <c r="D157" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C158" t="s">
+        <v>319</v>
+      </c>
+      <c r="D158" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C159" t="s">
+        <v>321</v>
+      </c>
+      <c r="D159" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C160" t="s">
+        <v>323</v>
+      </c>
+      <c r="D160" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C161" t="s">
+        <v>325</v>
+      </c>
+      <c r="D161" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C162" t="s">
+        <v>327</v>
+      </c>
+      <c r="D162" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C163" t="s">
+        <v>329</v>
+      </c>
+      <c r="D163" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C164" t="s">
+        <v>331</v>
+      </c>
+      <c r="D164" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C165" t="s">
+        <v>82</v>
+      </c>
+      <c r="D165" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C166" t="s">
+        <v>334</v>
+      </c>
+      <c r="D166" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C167" t="s">
+        <v>336</v>
+      </c>
+      <c r="D167" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C168" t="s">
+        <v>338</v>
+      </c>
+      <c r="D168" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C169" t="s">
+        <v>340</v>
+      </c>
+      <c r="D169" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C170" t="s">
+        <v>342</v>
+      </c>
+      <c r="D170" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C171" t="s">
+        <v>344</v>
+      </c>
+      <c r="D171" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C172" t="s">
+        <v>346</v>
+      </c>
+      <c r="D172" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C173" t="s">
+        <v>348</v>
+      </c>
+      <c r="D173" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C174" t="s">
+        <v>350</v>
+      </c>
+      <c r="D174" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C175" t="s">
+        <v>352</v>
+      </c>
+      <c r="D175" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C176" t="s">
+        <v>354</v>
+      </c>
+      <c r="D176" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C177" t="s">
+        <v>356</v>
+      </c>
+      <c r="D177" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C178" t="s">
+        <v>358</v>
+      </c>
+      <c r="D178" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C179" t="s">
+        <v>360</v>
+      </c>
+      <c r="D179" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C180" t="s">
+        <v>362</v>
+      </c>
+      <c r="D180" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C181" t="s">
+        <v>364</v>
+      </c>
+      <c r="D181" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C182" t="s">
+        <v>366</v>
+      </c>
+      <c r="D182" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A183">
         <v>182</v>
       </c>
+      <c r="B183" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C183" t="s">
+        <v>368</v>
+      </c>
+      <c r="D183" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C184" t="s">
+        <v>370</v>
+      </c>
+      <c r="D184" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C185" t="s">
+        <v>372</v>
+      </c>
+      <c r="D185" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C186" t="s">
+        <v>374</v>
+      </c>
+      <c r="D186" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C187" t="s">
+        <v>376</v>
+      </c>
+      <c r="D187" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C188" t="s">
+        <v>378</v>
+      </c>
+      <c r="D188" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C189" t="s">
+        <v>380</v>
+      </c>
+      <c r="D189" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C190" t="s">
+        <v>387</v>
+      </c>
+      <c r="D190" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C191" t="s">
+        <v>182</v>
+      </c>
+      <c r="D191" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C192" t="s">
+        <v>384</v>
+      </c>
+      <c r="D192" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C193" t="s">
+        <v>362</v>
+      </c>
+      <c r="D193" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C194" t="s">
+        <v>287</v>
+      </c>
+      <c r="D194" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C195" t="s">
+        <v>389</v>
+      </c>
+      <c r="D195" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C196" t="s">
+        <v>391</v>
+      </c>
+      <c r="D196" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C197" t="s">
+        <v>393</v>
+      </c>
+      <c r="D197" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="23" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C198" t="s">
+        <v>395</v>
+      </c>
+      <c r="D198" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C199" t="s">
+        <v>397</v>
+      </c>
+      <c r="D199" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C200" t="s">
+        <v>399</v>
+      </c>
+      <c r="D200" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C201" t="s">
+        <v>401</v>
+      </c>
+      <c r="D201" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="23" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C202" t="s">
+        <v>402</v>
+      </c>
+      <c r="D202" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>